--- a/examples/test/testFiles/ListReportOrdersNoErrosV2.xlsx
+++ b/examples/test/testFiles/ListReportOrdersNoErrosV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UI5\ui5-cc-excelUpload\examples\test\testFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianzeis/DEV/ui5-cc-excelUpload/examples/test/testFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24A1118-42AC-4C7D-B091-6F7BE2CDE2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F954C9-F9F3-2542-80E2-1DFB73741252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>Created On</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Changed On</t>
-  </si>
-  <si>
-    <t>Changed By</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>test@test.de</t>
   </si>
@@ -434,76 +416,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="D1" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{6AEF1AA3-6607-0146-ACD9-86E0F0D4AEFD}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{793DD381-A950-4C61-8CB5-912E2AB30FF2}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6AEF1AA3-6607-0146-ACD9-86E0F0D4AEFD}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{793DD381-A950-4C61-8CB5-912E2AB30FF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D1 A2:D2 G2 G1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>